--- a/Evaluation_Results/Final_TestFiles_12thSeptember_FewShotTest_Broad_Count/ner_evaluation_results_DeepSeekV3_4_shot.xlsx
+++ b/Evaluation_Results/Final_TestFiles_12thSeptember_FewShotTest_Broad_Count/ner_evaluation_results_DeepSeekV3_4_shot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,6 +633,89 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09/13/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DeepSeekV3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4957627118644068</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4034482758620689</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4448669201520912</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5688541426844711</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3918825071348214</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4369894502903656</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.58283460620904</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4034482758620689</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4565638851009324</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5635593220338984</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4602076124567474</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5066666666666667</v>
+      </c>
+      <c r="O3" t="n">
+        <v>133</v>
+      </c>
+      <c r="P3" t="n">
+        <v>103</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>156</v>
+      </c>
+      <c r="R3" t="n">
+        <v>290</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9558841500672125</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_12thSeptember_FewShotTest_Broad_Count/ner_evaluation_results_DeepSeekV3_4_shot.txt</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_12thSeptember_FewShotTest_Broad_Count/Stats/ner_evaluation_stats_DeepSeekV3_4_shot.txt</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>4 MLGPU</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0.003 kWh</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
